--- a/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM244"/>
+  <dimension ref="A1:CM250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43952,6 +43952,600 @@
       <c r="CL244" t="inlineStr"/>
       <c r="CM244" t="inlineStr"/>
     </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>6598</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr"/>
+      <c r="Z245" t="inlineStr"/>
+      <c r="AA245" t="inlineStr"/>
+      <c r="AB245" t="inlineStr"/>
+      <c r="AC245" t="inlineStr"/>
+      <c r="AD245" t="inlineStr"/>
+      <c r="AE245" t="inlineStr"/>
+      <c r="AF245" t="inlineStr"/>
+      <c r="AG245" t="inlineStr"/>
+      <c r="AH245" t="inlineStr"/>
+      <c r="AI245" t="inlineStr"/>
+      <c r="AJ245" t="inlineStr"/>
+      <c r="AK245" t="inlineStr"/>
+      <c r="AL245" t="inlineStr"/>
+      <c r="AM245" t="inlineStr"/>
+      <c r="AN245" t="inlineStr"/>
+      <c r="AO245" t="inlineStr"/>
+      <c r="AP245" t="inlineStr"/>
+      <c r="AQ245" t="inlineStr"/>
+      <c r="AR245" t="inlineStr"/>
+      <c r="AS245" t="inlineStr"/>
+      <c r="AT245" t="inlineStr"/>
+      <c r="AU245" t="inlineStr"/>
+      <c r="AV245" t="inlineStr"/>
+      <c r="AW245" t="inlineStr"/>
+      <c r="AX245" t="inlineStr"/>
+      <c r="AY245" t="inlineStr"/>
+      <c r="AZ245" t="inlineStr"/>
+      <c r="BA245" t="inlineStr"/>
+      <c r="BB245" t="inlineStr"/>
+      <c r="BC245" t="inlineStr"/>
+      <c r="BD245" t="inlineStr"/>
+      <c r="BE245" t="inlineStr"/>
+      <c r="BF245" t="inlineStr"/>
+      <c r="BG245" t="inlineStr"/>
+      <c r="BH245" t="inlineStr"/>
+      <c r="BI245" t="inlineStr"/>
+      <c r="BJ245" t="inlineStr"/>
+      <c r="BK245" t="inlineStr"/>
+      <c r="BL245" t="inlineStr"/>
+      <c r="BM245" t="inlineStr"/>
+      <c r="BN245" t="inlineStr"/>
+      <c r="BO245" t="inlineStr"/>
+      <c r="BP245" t="inlineStr"/>
+      <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr"/>
+      <c r="BS245" t="inlineStr"/>
+      <c r="BT245" t="inlineStr"/>
+      <c r="BU245" t="inlineStr"/>
+      <c r="BV245" t="inlineStr"/>
+      <c r="BW245" t="inlineStr"/>
+      <c r="BX245" t="inlineStr"/>
+      <c r="BY245" t="inlineStr"/>
+      <c r="BZ245" t="inlineStr"/>
+      <c r="CA245" t="inlineStr"/>
+      <c r="CB245" t="inlineStr"/>
+      <c r="CC245" t="inlineStr"/>
+      <c r="CD245" t="inlineStr"/>
+      <c r="CE245" t="inlineStr"/>
+      <c r="CF245" t="inlineStr"/>
+      <c r="CG245" t="inlineStr"/>
+      <c r="CH245" t="inlineStr"/>
+      <c r="CI245" t="inlineStr"/>
+      <c r="CJ245" t="inlineStr"/>
+      <c r="CK245" t="inlineStr"/>
+      <c r="CL245" t="inlineStr"/>
+      <c r="CM245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>6599</v>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr"/>
+      <c r="AB246" t="inlineStr"/>
+      <c r="AC246" t="inlineStr"/>
+      <c r="AD246" t="inlineStr"/>
+      <c r="AE246" t="inlineStr"/>
+      <c r="AF246" t="inlineStr"/>
+      <c r="AG246" t="inlineStr"/>
+      <c r="AH246" t="inlineStr"/>
+      <c r="AI246" t="inlineStr"/>
+      <c r="AJ246" t="inlineStr"/>
+      <c r="AK246" t="inlineStr"/>
+      <c r="AL246" t="inlineStr"/>
+      <c r="AM246" t="inlineStr"/>
+      <c r="AN246" t="inlineStr"/>
+      <c r="AO246" t="inlineStr"/>
+      <c r="AP246" t="inlineStr"/>
+      <c r="AQ246" t="inlineStr"/>
+      <c r="AR246" t="inlineStr"/>
+      <c r="AS246" t="inlineStr"/>
+      <c r="AT246" t="inlineStr"/>
+      <c r="AU246" t="inlineStr"/>
+      <c r="AV246" t="inlineStr"/>
+      <c r="AW246" t="inlineStr"/>
+      <c r="AX246" t="inlineStr"/>
+      <c r="AY246" t="inlineStr"/>
+      <c r="AZ246" t="inlineStr"/>
+      <c r="BA246" t="inlineStr"/>
+      <c r="BB246" t="inlineStr"/>
+      <c r="BC246" t="inlineStr"/>
+      <c r="BD246" t="inlineStr"/>
+      <c r="BE246" t="inlineStr"/>
+      <c r="BF246" t="inlineStr"/>
+      <c r="BG246" t="inlineStr"/>
+      <c r="BH246" t="inlineStr"/>
+      <c r="BI246" t="inlineStr"/>
+      <c r="BJ246" t="inlineStr"/>
+      <c r="BK246" t="inlineStr"/>
+      <c r="BL246" t="inlineStr"/>
+      <c r="BM246" t="inlineStr"/>
+      <c r="BN246" t="inlineStr"/>
+      <c r="BO246" t="inlineStr"/>
+      <c r="BP246" t="inlineStr"/>
+      <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr"/>
+      <c r="BS246" t="inlineStr"/>
+      <c r="BT246" t="inlineStr"/>
+      <c r="BU246" t="inlineStr"/>
+      <c r="BV246" t="inlineStr"/>
+      <c r="BW246" t="inlineStr"/>
+      <c r="BX246" t="inlineStr"/>
+      <c r="BY246" t="inlineStr"/>
+      <c r="BZ246" t="inlineStr"/>
+      <c r="CA246" t="inlineStr"/>
+      <c r="CB246" t="inlineStr"/>
+      <c r="CC246" t="inlineStr"/>
+      <c r="CD246" t="inlineStr"/>
+      <c r="CE246" t="inlineStr"/>
+      <c r="CF246" t="inlineStr"/>
+      <c r="CG246" t="inlineStr"/>
+      <c r="CH246" t="inlineStr"/>
+      <c r="CI246" t="inlineStr"/>
+      <c r="CJ246" t="inlineStr"/>
+      <c r="CK246" t="inlineStr"/>
+      <c r="CL246" t="inlineStr"/>
+      <c r="CM246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>6600</v>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr"/>
+      <c r="Z247" t="inlineStr"/>
+      <c r="AA247" t="inlineStr"/>
+      <c r="AB247" t="inlineStr"/>
+      <c r="AC247" t="inlineStr"/>
+      <c r="AD247" t="inlineStr"/>
+      <c r="AE247" t="inlineStr"/>
+      <c r="AF247" t="inlineStr"/>
+      <c r="AG247" t="inlineStr"/>
+      <c r="AH247" t="inlineStr"/>
+      <c r="AI247" t="inlineStr"/>
+      <c r="AJ247" t="inlineStr"/>
+      <c r="AK247" t="inlineStr"/>
+      <c r="AL247" t="inlineStr"/>
+      <c r="AM247" t="inlineStr"/>
+      <c r="AN247" t="inlineStr"/>
+      <c r="AO247" t="inlineStr"/>
+      <c r="AP247" t="inlineStr"/>
+      <c r="AQ247" t="inlineStr"/>
+      <c r="AR247" t="inlineStr"/>
+      <c r="AS247" t="inlineStr"/>
+      <c r="AT247" t="inlineStr"/>
+      <c r="AU247" t="inlineStr"/>
+      <c r="AV247" t="inlineStr"/>
+      <c r="AW247" t="inlineStr"/>
+      <c r="AX247" t="inlineStr"/>
+      <c r="AY247" t="inlineStr"/>
+      <c r="AZ247" t="inlineStr"/>
+      <c r="BA247" t="inlineStr"/>
+      <c r="BB247" t="inlineStr"/>
+      <c r="BC247" t="inlineStr"/>
+      <c r="BD247" t="inlineStr"/>
+      <c r="BE247" t="inlineStr"/>
+      <c r="BF247" t="inlineStr"/>
+      <c r="BG247" t="inlineStr"/>
+      <c r="BH247" t="inlineStr"/>
+      <c r="BI247" t="inlineStr"/>
+      <c r="BJ247" t="inlineStr"/>
+      <c r="BK247" t="inlineStr"/>
+      <c r="BL247" t="inlineStr"/>
+      <c r="BM247" t="inlineStr"/>
+      <c r="BN247" t="inlineStr"/>
+      <c r="BO247" t="inlineStr"/>
+      <c r="BP247" t="inlineStr"/>
+      <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr"/>
+      <c r="BS247" t="inlineStr"/>
+      <c r="BT247" t="inlineStr"/>
+      <c r="BU247" t="inlineStr"/>
+      <c r="BV247" t="inlineStr"/>
+      <c r="BW247" t="inlineStr"/>
+      <c r="BX247" t="inlineStr"/>
+      <c r="BY247" t="inlineStr"/>
+      <c r="BZ247" t="inlineStr"/>
+      <c r="CA247" t="inlineStr"/>
+      <c r="CB247" t="inlineStr"/>
+      <c r="CC247" t="inlineStr"/>
+      <c r="CD247" t="inlineStr"/>
+      <c r="CE247" t="inlineStr"/>
+      <c r="CF247" t="inlineStr"/>
+      <c r="CG247" t="inlineStr"/>
+      <c r="CH247" t="inlineStr"/>
+      <c r="CI247" t="inlineStr"/>
+      <c r="CJ247" t="inlineStr"/>
+      <c r="CK247" t="inlineStr"/>
+      <c r="CL247" t="inlineStr"/>
+      <c r="CM247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>6601</v>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr"/>
+      <c r="Z248" t="inlineStr"/>
+      <c r="AA248" t="inlineStr"/>
+      <c r="AB248" t="inlineStr"/>
+      <c r="AC248" t="inlineStr"/>
+      <c r="AD248" t="inlineStr"/>
+      <c r="AE248" t="inlineStr"/>
+      <c r="AF248" t="inlineStr"/>
+      <c r="AG248" t="inlineStr"/>
+      <c r="AH248" t="inlineStr"/>
+      <c r="AI248" t="inlineStr"/>
+      <c r="AJ248" t="inlineStr"/>
+      <c r="AK248" t="inlineStr"/>
+      <c r="AL248" t="inlineStr"/>
+      <c r="AM248" t="inlineStr"/>
+      <c r="AN248" t="inlineStr"/>
+      <c r="AO248" t="inlineStr"/>
+      <c r="AP248" t="inlineStr"/>
+      <c r="AQ248" t="inlineStr"/>
+      <c r="AR248" t="inlineStr"/>
+      <c r="AS248" t="inlineStr"/>
+      <c r="AT248" t="inlineStr"/>
+      <c r="AU248" t="inlineStr"/>
+      <c r="AV248" t="inlineStr"/>
+      <c r="AW248" t="inlineStr"/>
+      <c r="AX248" t="inlineStr"/>
+      <c r="AY248" t="inlineStr"/>
+      <c r="AZ248" t="inlineStr"/>
+      <c r="BA248" t="inlineStr"/>
+      <c r="BB248" t="inlineStr"/>
+      <c r="BC248" t="inlineStr"/>
+      <c r="BD248" t="inlineStr"/>
+      <c r="BE248" t="inlineStr"/>
+      <c r="BF248" t="inlineStr"/>
+      <c r="BG248" t="inlineStr"/>
+      <c r="BH248" t="inlineStr"/>
+      <c r="BI248" t="inlineStr"/>
+      <c r="BJ248" t="inlineStr"/>
+      <c r="BK248" t="inlineStr"/>
+      <c r="BL248" t="inlineStr"/>
+      <c r="BM248" t="inlineStr"/>
+      <c r="BN248" t="inlineStr"/>
+      <c r="BO248" t="inlineStr"/>
+      <c r="BP248" t="inlineStr"/>
+      <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
+      <c r="BS248" t="inlineStr"/>
+      <c r="BT248" t="inlineStr"/>
+      <c r="BU248" t="inlineStr"/>
+      <c r="BV248" t="inlineStr"/>
+      <c r="BW248" t="inlineStr"/>
+      <c r="BX248" t="inlineStr"/>
+      <c r="BY248" t="inlineStr"/>
+      <c r="BZ248" t="inlineStr"/>
+      <c r="CA248" t="inlineStr"/>
+      <c r="CB248" t="inlineStr"/>
+      <c r="CC248" t="inlineStr"/>
+      <c r="CD248" t="inlineStr"/>
+      <c r="CE248" t="inlineStr"/>
+      <c r="CF248" t="inlineStr"/>
+      <c r="CG248" t="inlineStr"/>
+      <c r="CH248" t="inlineStr"/>
+      <c r="CI248" t="inlineStr"/>
+      <c r="CJ248" t="inlineStr"/>
+      <c r="CK248" t="inlineStr"/>
+      <c r="CL248" t="inlineStr"/>
+      <c r="CM248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>6603</v>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
+      <c r="Y249" t="inlineStr"/>
+      <c r="Z249" t="inlineStr"/>
+      <c r="AA249" t="inlineStr"/>
+      <c r="AB249" t="inlineStr"/>
+      <c r="AC249" t="inlineStr"/>
+      <c r="AD249" t="inlineStr"/>
+      <c r="AE249" t="inlineStr"/>
+      <c r="AF249" t="inlineStr"/>
+      <c r="AG249" t="inlineStr"/>
+      <c r="AH249" t="inlineStr"/>
+      <c r="AI249" t="inlineStr"/>
+      <c r="AJ249" t="inlineStr"/>
+      <c r="AK249" t="inlineStr"/>
+      <c r="AL249" t="inlineStr"/>
+      <c r="AM249" t="inlineStr"/>
+      <c r="AN249" t="inlineStr"/>
+      <c r="AO249" t="inlineStr"/>
+      <c r="AP249" t="inlineStr"/>
+      <c r="AQ249" t="inlineStr"/>
+      <c r="AR249" t="inlineStr"/>
+      <c r="AS249" t="inlineStr"/>
+      <c r="AT249" t="inlineStr"/>
+      <c r="AU249" t="inlineStr"/>
+      <c r="AV249" t="inlineStr"/>
+      <c r="AW249" t="inlineStr"/>
+      <c r="AX249" t="inlineStr"/>
+      <c r="AY249" t="inlineStr"/>
+      <c r="AZ249" t="inlineStr"/>
+      <c r="BA249" t="inlineStr"/>
+      <c r="BB249" t="inlineStr"/>
+      <c r="BC249" t="inlineStr"/>
+      <c r="BD249" t="inlineStr"/>
+      <c r="BE249" t="inlineStr"/>
+      <c r="BF249" t="inlineStr"/>
+      <c r="BG249" t="inlineStr"/>
+      <c r="BH249" t="inlineStr"/>
+      <c r="BI249" t="inlineStr"/>
+      <c r="BJ249" t="inlineStr"/>
+      <c r="BK249" t="inlineStr"/>
+      <c r="BL249" t="inlineStr"/>
+      <c r="BM249" t="inlineStr"/>
+      <c r="BN249" t="inlineStr"/>
+      <c r="BO249" t="inlineStr"/>
+      <c r="BP249" t="inlineStr"/>
+      <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr"/>
+      <c r="BS249" t="inlineStr"/>
+      <c r="BT249" t="inlineStr"/>
+      <c r="BU249" t="inlineStr"/>
+      <c r="BV249" t="inlineStr"/>
+      <c r="BW249" t="inlineStr"/>
+      <c r="BX249" t="inlineStr"/>
+      <c r="BY249" t="inlineStr"/>
+      <c r="BZ249" t="inlineStr"/>
+      <c r="CA249" t="inlineStr"/>
+      <c r="CB249" t="inlineStr"/>
+      <c r="CC249" t="inlineStr"/>
+      <c r="CD249" t="inlineStr"/>
+      <c r="CE249" t="inlineStr"/>
+      <c r="CF249" t="inlineStr"/>
+      <c r="CG249" t="inlineStr"/>
+      <c r="CH249" t="inlineStr"/>
+      <c r="CI249" t="inlineStr"/>
+      <c r="CJ249" t="inlineStr"/>
+      <c r="CK249" t="inlineStr"/>
+      <c r="CL249" t="inlineStr"/>
+      <c r="CM249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>6635</v>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
+      <c r="Y250" t="inlineStr"/>
+      <c r="Z250" t="inlineStr"/>
+      <c r="AA250" t="inlineStr"/>
+      <c r="AB250" t="inlineStr"/>
+      <c r="AC250" t="inlineStr"/>
+      <c r="AD250" t="inlineStr"/>
+      <c r="AE250" t="inlineStr"/>
+      <c r="AF250" t="inlineStr"/>
+      <c r="AG250" t="inlineStr"/>
+      <c r="AH250" t="inlineStr"/>
+      <c r="AI250" t="inlineStr"/>
+      <c r="AJ250" t="inlineStr"/>
+      <c r="AK250" t="inlineStr"/>
+      <c r="AL250" t="inlineStr"/>
+      <c r="AM250" t="inlineStr"/>
+      <c r="AN250" t="inlineStr"/>
+      <c r="AO250" t="inlineStr"/>
+      <c r="AP250" t="inlineStr"/>
+      <c r="AQ250" t="inlineStr"/>
+      <c r="AR250" t="inlineStr"/>
+      <c r="AS250" t="inlineStr"/>
+      <c r="AT250" t="inlineStr"/>
+      <c r="AU250" t="inlineStr"/>
+      <c r="AV250" t="inlineStr"/>
+      <c r="AW250" t="inlineStr"/>
+      <c r="AX250" t="inlineStr"/>
+      <c r="AY250" t="inlineStr"/>
+      <c r="AZ250" t="inlineStr"/>
+      <c r="BA250" t="inlineStr"/>
+      <c r="BB250" t="inlineStr"/>
+      <c r="BC250" t="inlineStr"/>
+      <c r="BD250" t="inlineStr"/>
+      <c r="BE250" t="inlineStr"/>
+      <c r="BF250" t="inlineStr"/>
+      <c r="BG250" t="inlineStr"/>
+      <c r="BH250" t="inlineStr"/>
+      <c r="BI250" t="inlineStr"/>
+      <c r="BJ250" t="inlineStr"/>
+      <c r="BK250" t="inlineStr"/>
+      <c r="BL250" t="inlineStr"/>
+      <c r="BM250" t="inlineStr"/>
+      <c r="BN250" t="inlineStr"/>
+      <c r="BO250" t="inlineStr"/>
+      <c r="BP250" t="inlineStr"/>
+      <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr"/>
+      <c r="BS250" t="inlineStr"/>
+      <c r="BT250" t="inlineStr"/>
+      <c r="BU250" t="inlineStr"/>
+      <c r="BV250" t="inlineStr"/>
+      <c r="BW250" t="inlineStr"/>
+      <c r="BX250" t="inlineStr"/>
+      <c r="BY250" t="inlineStr"/>
+      <c r="BZ250" t="inlineStr"/>
+      <c r="CA250" t="inlineStr"/>
+      <c r="CB250" t="inlineStr"/>
+      <c r="CC250" t="inlineStr"/>
+      <c r="CD250" t="inlineStr"/>
+      <c r="CE250" t="inlineStr"/>
+      <c r="CF250" t="inlineStr"/>
+      <c r="CG250" t="inlineStr"/>
+      <c r="CH250" t="inlineStr"/>
+      <c r="CI250" t="inlineStr"/>
+      <c r="CJ250" t="inlineStr"/>
+      <c r="CK250" t="inlineStr"/>
+      <c r="CL250" t="inlineStr"/>
+      <c r="CM250" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM250"/>
+  <dimension ref="A1:CM251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44546,6 +44546,105 @@
       <c r="CL250" t="inlineStr"/>
       <c r="CM250" t="inlineStr"/>
     </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>6655</v>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr"/>
+      <c r="V251" t="inlineStr"/>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
+      <c r="Y251" t="inlineStr"/>
+      <c r="Z251" t="inlineStr"/>
+      <c r="AA251" t="inlineStr"/>
+      <c r="AB251" t="inlineStr"/>
+      <c r="AC251" t="inlineStr"/>
+      <c r="AD251" t="inlineStr"/>
+      <c r="AE251" t="inlineStr"/>
+      <c r="AF251" t="inlineStr"/>
+      <c r="AG251" t="inlineStr"/>
+      <c r="AH251" t="inlineStr"/>
+      <c r="AI251" t="inlineStr"/>
+      <c r="AJ251" t="inlineStr"/>
+      <c r="AK251" t="inlineStr"/>
+      <c r="AL251" t="inlineStr"/>
+      <c r="AM251" t="inlineStr"/>
+      <c r="AN251" t="inlineStr"/>
+      <c r="AO251" t="inlineStr"/>
+      <c r="AP251" t="inlineStr"/>
+      <c r="AQ251" t="inlineStr"/>
+      <c r="AR251" t="inlineStr"/>
+      <c r="AS251" t="inlineStr"/>
+      <c r="AT251" t="inlineStr"/>
+      <c r="AU251" t="inlineStr"/>
+      <c r="AV251" t="inlineStr"/>
+      <c r="AW251" t="inlineStr"/>
+      <c r="AX251" t="inlineStr"/>
+      <c r="AY251" t="inlineStr"/>
+      <c r="AZ251" t="inlineStr"/>
+      <c r="BA251" t="inlineStr"/>
+      <c r="BB251" t="inlineStr"/>
+      <c r="BC251" t="inlineStr"/>
+      <c r="BD251" t="inlineStr"/>
+      <c r="BE251" t="inlineStr"/>
+      <c r="BF251" t="inlineStr"/>
+      <c r="BG251" t="inlineStr"/>
+      <c r="BH251" t="inlineStr"/>
+      <c r="BI251" t="inlineStr"/>
+      <c r="BJ251" t="inlineStr"/>
+      <c r="BK251" t="inlineStr"/>
+      <c r="BL251" t="inlineStr"/>
+      <c r="BM251" t="inlineStr"/>
+      <c r="BN251" t="inlineStr"/>
+      <c r="BO251" t="inlineStr"/>
+      <c r="BP251" t="inlineStr"/>
+      <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr"/>
+      <c r="BS251" t="inlineStr"/>
+      <c r="BT251" t="inlineStr"/>
+      <c r="BU251" t="inlineStr"/>
+      <c r="BV251" t="inlineStr"/>
+      <c r="BW251" t="inlineStr"/>
+      <c r="BX251" t="inlineStr"/>
+      <c r="BY251" t="inlineStr"/>
+      <c r="BZ251" t="inlineStr"/>
+      <c r="CA251" t="inlineStr"/>
+      <c r="CB251" t="inlineStr"/>
+      <c r="CC251" t="inlineStr"/>
+      <c r="CD251" t="inlineStr"/>
+      <c r="CE251" t="inlineStr"/>
+      <c r="CF251" t="inlineStr"/>
+      <c r="CG251" t="inlineStr"/>
+      <c r="CH251" t="inlineStr"/>
+      <c r="CI251" t="inlineStr"/>
+      <c r="CJ251" t="inlineStr"/>
+      <c r="CK251" t="inlineStr"/>
+      <c r="CL251" t="inlineStr"/>
+      <c r="CM251" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM251"/>
+  <dimension ref="A1:CM252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44645,6 +44645,295 @@
       <c r="CL251" t="inlineStr"/>
       <c r="CM251" t="inlineStr"/>
     </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>6686</v>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>18</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>18</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> d.dep.lyda.franco.cali.edu.co</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>53</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Separado/a o Divorciado/a</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>Sí, otro tipo de formación (diplomados, especializaciones, formación complementaria)</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>9°, 10°</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
+      <c r="Y252" t="inlineStr"/>
+      <c r="Z252" t="inlineStr"/>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>No sé qué es el pensamiento computacional.</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr"/>
+      <c r="AE252" t="inlineStr"/>
+      <c r="AF252" t="inlineStr"/>
+      <c r="AG252" t="inlineStr"/>
+      <c r="AH252" t="inlineStr"/>
+      <c r="AI252" t="inlineStr"/>
+      <c r="AJ252" t="inlineStr"/>
+      <c r="AK252" t="inlineStr"/>
+      <c r="AL252" t="inlineStr"/>
+      <c r="AM252" t="inlineStr"/>
+      <c r="AN252" t="inlineStr"/>
+      <c r="AO252" t="inlineStr"/>
+      <c r="AP252" t="inlineStr"/>
+      <c r="AQ252" t="inlineStr"/>
+      <c r="AR252" t="inlineStr"/>
+      <c r="AS252" t="inlineStr"/>
+      <c r="AT252" t="inlineStr"/>
+      <c r="AU252" t="inlineStr"/>
+      <c r="AV252" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="AW252" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AX252" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="AY252" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AZ252" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="BA252" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="BB252" t="inlineStr">
+        <is>
+          <t>En Desacuerdo</t>
+        </is>
+      </c>
+      <c r="BC252" t="inlineStr"/>
+      <c r="BD252" t="inlineStr"/>
+      <c r="BE252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF252" t="inlineStr"/>
+      <c r="BG252" t="inlineStr"/>
+      <c r="BH252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO252" t="inlineStr"/>
+      <c r="BP252" t="inlineStr">
+        <is>
+          <t>Es una función matemática que depende de una base y un argumento</t>
+        </is>
+      </c>
+      <c r="BQ252" t="inlineStr">
+        <is>
+          <t>Para planificar la solución a un problema</t>
+        </is>
+      </c>
+      <c r="BR252" t="inlineStr">
+        <is>
+          <t>Un conjunto de instrucciones que se ejecuta mientras se cumpla una condición</t>
+        </is>
+      </c>
+      <c r="BS252" t="inlineStr">
+        <is>
+          <t>No sé/ No lo conozco</t>
+        </is>
+      </c>
+      <c r="BT252" t="inlineStr">
+        <is>
+          <t>No sé/ No lo conozco</t>
+        </is>
+      </c>
+      <c r="BU252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buenas </t>
+        </is>
+      </c>
+      <c r="BV252" t="inlineStr">
+        <is>
+          <t>Motivar que las niñas participen y sean escuchadas, por ejemplo, alternándolas con los niños.</t>
+        </is>
+      </c>
+      <c r="BW252" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="BX252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="BY252" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="BZ252" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CA252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CB252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CC252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CD252" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="CE252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CF252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CG252" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CH252" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CI252" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="CJ252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CK252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CL252" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CM252" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
@@ -895,7 +895,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07/04</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -1162,7 +1166,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07/04</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -1461,7 +1469,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13/04</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -1854,7 +1866,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18/04</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -2217,7 +2233,11 @@
         <v>32</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18/04</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>No</t>
@@ -2316,7 +2336,11 @@
         <v>78</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -2687,7 +2711,11 @@
         <v>79</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -3088,7 +3116,11 @@
         <v>83</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>No</t>
@@ -3187,7 +3219,11 @@
         <v>84</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>No</t>
@@ -3286,7 +3322,11 @@
         <v>85</v>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -3661,7 +3701,11 @@
         <v>100</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -4030,7 +4074,11 @@
         <v>117</v>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -4373,7 +4421,11 @@
         <v>129</v>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -4732,7 +4784,11 @@
         <v>141</v>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>No</t>
@@ -4831,7 +4887,11 @@
         <v>143</v>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>No</t>
@@ -4930,7 +4990,11 @@
         <v>145</v>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>No</t>
@@ -5029,7 +5093,11 @@
         <v>159</v>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>No</t>
@@ -5128,7 +5196,11 @@
         <v>171</v>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -5489,7 +5561,11 @@
         <v>177</v>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -5852,7 +5928,11 @@
         <v>179</v>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -6207,7 +6287,11 @@
         <v>182</v>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>No</t>
@@ -6306,7 +6390,11 @@
         <v>195</v>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -6713,7 +6801,11 @@
         <v>199</v>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -7072,7 +7164,11 @@
         <v>201</v>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -7437,7 +7533,11 @@
         <v>203</v>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -7796,7 +7896,11 @@
         <v>206</v>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -8161,7 +8265,11 @@
         <v>216</v>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -8538,7 +8646,11 @@
         <v>217</v>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -8901,7 +9013,11 @@
         <v>243</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>No</t>
@@ -9000,7 +9116,11 @@
         <v>296</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -9311,7 +9431,11 @@
         <v>314</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>No</t>
@@ -9410,7 +9534,11 @@
         <v>315</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>No</t>
@@ -9509,7 +9637,11 @@
         <v>353</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19/04</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -9906,7 +10038,11 @@
         <v>393</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>No</t>
@@ -10005,7 +10141,11 @@
         <v>403</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>No</t>
@@ -10104,7 +10244,11 @@
         <v>406</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>No</t>
@@ -10203,7 +10347,11 @@
         <v>457</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -10568,7 +10716,11 @@
         <v>476</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -10933,7 +11085,11 @@
         <v>512</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -11334,7 +11490,11 @@
         <v>524</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>No</t>
@@ -11433,7 +11593,11 @@
         <v>554</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -11798,7 +11962,11 @@
         <v>556</v>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20/04</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>No</t>
@@ -11897,7 +12065,11 @@
         <v>597</v>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -12280,7 +12452,11 @@
         <v>623</v>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>No</t>
@@ -12379,7 +12555,11 @@
         <v>624</v>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>No</t>
@@ -12478,7 +12658,11 @@
         <v>634</v>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>No</t>
@@ -12577,7 +12761,11 @@
         <v>656</v>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -12958,7 +13146,11 @@
         <v>714</v>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -13335,7 +13527,11 @@
         <v>730</v>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>No</t>
@@ -13434,7 +13630,11 @@
         <v>828</v>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>22/04</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>No</t>
@@ -13533,7 +13733,11 @@
         <v>832</v>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>22/04</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>No</t>
@@ -13632,7 +13836,11 @@
         <v>854</v>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>22/04</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -13995,7 +14203,11 @@
         <v>925</v>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>22/04</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>No</t>
@@ -14094,7 +14306,11 @@
         <v>932</v>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>22/04</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -14449,7 +14665,11 @@
         <v>955</v>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>22/04</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -14850,7 +15070,11 @@
         <v>1073</v>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>23/04</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>No</t>
@@ -14949,7 +15173,11 @@
         <v>1109</v>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>24/04</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>No</t>
@@ -15048,7 +15276,11 @@
         <v>1130</v>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>25/04</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -15399,7 +15631,11 @@
         <v>1141</v>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>25/04</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>No</t>
@@ -15498,7 +15734,11 @@
         <v>1142</v>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>25/04</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>No</t>
@@ -15597,7 +15837,11 @@
         <v>1196</v>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>25/04</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -15992,7 +16236,11 @@
         <v>1222</v>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>25/04</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>No</t>
@@ -16091,7 +16339,11 @@
         <v>1314</v>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>25/04</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>No</t>
@@ -16190,7 +16442,11 @@
         <v>1359</v>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>No</t>
@@ -16289,7 +16545,11 @@
         <v>1364</v>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>No</t>
@@ -16388,7 +16648,11 @@
         <v>1366</v>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>No</t>
@@ -16487,7 +16751,11 @@
         <v>1367</v>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>No</t>
@@ -16586,7 +16854,11 @@
         <v>1368</v>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>No</t>
@@ -16685,7 +16957,11 @@
         <v>1393</v>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>No</t>
@@ -16784,7 +17060,11 @@
         <v>1439</v>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -17153,7 +17433,11 @@
         <v>1462</v>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>No</t>
@@ -17252,7 +17536,11 @@
         <v>1465</v>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -17621,7 +17909,11 @@
         <v>1470</v>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>No</t>
@@ -17720,7 +18012,11 @@
         <v>1485</v>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>No</t>
@@ -17819,7 +18115,11 @@
         <v>1511</v>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>No</t>
@@ -17918,7 +18218,11 @@
         <v>1516</v>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>No</t>
@@ -18017,7 +18321,11 @@
         <v>1582</v>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -18398,7 +18706,11 @@
         <v>1587</v>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>No</t>
@@ -18497,7 +18809,11 @@
         <v>1595</v>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>No</t>
@@ -18596,7 +18912,11 @@
         <v>1610</v>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>No</t>
@@ -18695,7 +19015,11 @@
         <v>1611</v>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>No</t>
@@ -18794,7 +19118,11 @@
         <v>1656</v>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>26/04</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>No</t>
@@ -18893,7 +19221,11 @@
         <v>1722</v>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>No</t>
@@ -18992,7 +19324,11 @@
         <v>1723</v>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>No</t>
@@ -19091,7 +19427,11 @@
         <v>1738</v>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>No</t>
@@ -19190,7 +19530,11 @@
         <v>1747</v>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>No</t>
@@ -19289,7 +19633,11 @@
         <v>1777</v>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>No</t>
@@ -19388,7 +19736,11 @@
         <v>1789</v>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>No</t>
@@ -19487,7 +19839,11 @@
         <v>1818</v>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>No</t>
@@ -19586,7 +19942,11 @@
         <v>1819</v>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -19957,7 +20317,11 @@
         <v>1820</v>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>No</t>
@@ -20056,7 +20420,11 @@
         <v>1864</v>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>No</t>
@@ -20155,7 +20523,11 @@
         <v>1919</v>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>27/04</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>No</t>
@@ -20254,7 +20626,11 @@
         <v>1932</v>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>No</t>
@@ -20353,7 +20729,11 @@
         <v>1933</v>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>No</t>
@@ -20452,7 +20832,11 @@
         <v>1981</v>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>No</t>
@@ -20551,7 +20935,11 @@
         <v>1988</v>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>No</t>
@@ -20650,7 +21038,11 @@
         <v>2007</v>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>No</t>
@@ -20749,7 +21141,11 @@
         <v>2031</v>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>No</t>
@@ -20848,7 +21244,11 @@
         <v>2032</v>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>No</t>
@@ -20947,7 +21347,11 @@
         <v>2062</v>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -21316,7 +21720,11 @@
         <v>2097</v>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>28/04</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>No</t>
@@ -21415,7 +21823,11 @@
         <v>2127</v>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>29/04</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -21780,7 +22192,11 @@
         <v>2188</v>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>29/04</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -22073,7 +22489,11 @@
         <v>2189</v>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>29/04</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>No</t>
@@ -22172,7 +22592,11 @@
         <v>2331</v>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>30/04</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>No</t>
@@ -22271,7 +22695,11 @@
         <v>2355</v>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>01/05</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -22674,7 +23102,11 @@
         <v>2410</v>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>No</t>
@@ -22773,7 +23205,11 @@
         <v>2412</v>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>No</t>
@@ -22872,7 +23308,11 @@
         <v>2492</v>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -23225,7 +23665,11 @@
         <v>2498</v>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>No</t>
@@ -23324,7 +23768,11 @@
         <v>2499</v>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>No</t>
@@ -23423,7 +23871,11 @@
         <v>2501</v>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>No</t>
@@ -23522,7 +23974,11 @@
         <v>2504</v>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>No</t>
@@ -23621,7 +24077,11 @@
         <v>2583</v>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>No</t>
@@ -23720,7 +24180,11 @@
         <v>2588</v>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>No</t>
@@ -23819,7 +24283,11 @@
         <v>2590</v>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>No</t>
@@ -23918,7 +24386,11 @@
         <v>2639</v>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>No</t>
@@ -24017,7 +24489,11 @@
         <v>2736</v>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>No</t>
@@ -24116,7 +24592,11 @@
         <v>2742</v>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>No</t>
@@ -24215,7 +24695,11 @@
         <v>2743</v>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>No</t>
@@ -24314,7 +24798,11 @@
         <v>2760</v>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>No</t>
@@ -24413,7 +24901,11 @@
         <v>2872</v>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -24772,7 +25264,11 @@
         <v>2883</v>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -25121,7 +25617,11 @@
         <v>3006</v>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>No</t>
@@ -25220,7 +25720,11 @@
         <v>3062</v>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>No</t>
@@ -25319,7 +25823,11 @@
         <v>3063</v>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>No</t>
@@ -25418,7 +25926,11 @@
         <v>3066</v>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>No</t>
@@ -25517,7 +26029,11 @@
         <v>3075</v>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>No</t>
@@ -25616,7 +26132,11 @@
         <v>3076</v>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>No</t>
@@ -25715,7 +26235,11 @@
         <v>3097</v>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -26082,7 +26606,11 @@
         <v>3101</v>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -26439,7 +26967,11 @@
         <v>3121</v>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>No</t>
@@ -26538,7 +27070,11 @@
         <v>3123</v>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>No</t>
@@ -26637,7 +27173,11 @@
         <v>3198</v>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>No</t>
@@ -26736,7 +27276,11 @@
         <v>3201</v>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>No</t>
@@ -26835,7 +27379,11 @@
         <v>3206</v>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -27176,7 +27724,11 @@
         <v>3222</v>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -27548,7 +28100,11 @@
         <v>3243</v>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>No</t>
@@ -27647,7 +28203,11 @@
         <v>3262</v>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>No</t>
@@ -27746,7 +28306,11 @@
         <v>3263</v>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>No</t>
@@ -27845,7 +28409,11 @@
         <v>3291</v>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -28210,7 +28778,11 @@
         <v>3304</v>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -28577,7 +29149,11 @@
         <v>3313</v>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>No</t>
@@ -28676,7 +29252,11 @@
         <v>3322</v>
       </c>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>No</t>
@@ -28775,7 +29355,11 @@
         <v>3325</v>
       </c>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>No</t>
@@ -28874,7 +29458,11 @@
         <v>3330</v>
       </c>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>No</t>
@@ -28973,7 +29561,11 @@
         <v>3331</v>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>No</t>
@@ -29072,7 +29664,11 @@
         <v>3334</v>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>No</t>
@@ -29171,7 +29767,11 @@
         <v>3395</v>
       </c>
       <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -29544,7 +30144,11 @@
         <v>3465</v>
       </c>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -29961,7 +30565,11 @@
         <v>3515</v>
       </c>
       <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>04/05</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>No</t>
@@ -30060,7 +30668,11 @@
         <v>3617</v>
       </c>
       <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -30425,7 +31037,11 @@
         <v>3619</v>
       </c>
       <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>No</t>
@@ -30524,7 +31140,11 @@
         <v>3640</v>
       </c>
       <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>No</t>
@@ -30623,7 +31243,11 @@
         <v>3656</v>
       </c>
       <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -30900,7 +31524,11 @@
         <v>3677</v>
       </c>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>No</t>
@@ -30999,7 +31627,11 @@
         <v>3708</v>
       </c>
       <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>No</t>
@@ -31098,7 +31730,11 @@
         <v>3739</v>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>No</t>
@@ -31197,7 +31833,11 @@
         <v>3740</v>
       </c>
       <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>No</t>
@@ -31296,7 +31936,11 @@
         <v>3800</v>
       </c>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -31589,7 +32233,11 @@
         <v>3881</v>
       </c>
       <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>No</t>
@@ -31688,7 +32336,11 @@
         <v>3927</v>
       </c>
       <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>No</t>
@@ -31787,7 +32439,11 @@
         <v>3992</v>
       </c>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>05/05</t>
+        </is>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -32200,7 +32856,11 @@
         <v>4029</v>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>06/05</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>No</t>
@@ -32299,7 +32959,11 @@
         <v>4030</v>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>06/05</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>No</t>
@@ -32398,7 +33062,11 @@
         <v>4102</v>
       </c>
       <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>06/05</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>No</t>
@@ -32497,7 +33165,11 @@
         <v>4119</v>
       </c>
       <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>06/05</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>No</t>
@@ -32596,7 +33268,11 @@
         <v>4204</v>
       </c>
       <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>06/05</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>No</t>
@@ -32695,7 +33371,11 @@
         <v>4356</v>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>09/05</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -33058,7 +33738,11 @@
         <v>4380</v>
       </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>09/05</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>No</t>
@@ -33157,7 +33841,11 @@
         <v>4438</v>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>09/05</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>No</t>
@@ -33256,7 +33944,11 @@
         <v>4448</v>
       </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>09/05</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -33631,7 +34323,11 @@
         <v>4484</v>
       </c>
       <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>10/05</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>No</t>
@@ -33730,7 +34426,11 @@
         <v>4590</v>
       </c>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>10/05</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>No</t>
@@ -33829,7 +34529,11 @@
         <v>4594</v>
       </c>
       <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>10/05</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -34178,7 +34882,11 @@
         <v>4615</v>
       </c>
       <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>10/05</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -34523,7 +35231,11 @@
         <v>4626</v>
       </c>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>10/05</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -34878,7 +35590,11 @@
         <v>4694</v>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -35245,7 +35961,11 @@
         <v>4738</v>
       </c>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>No</t>
@@ -35344,7 +36064,11 @@
         <v>4741</v>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>No</t>
@@ -35443,7 +36167,11 @@
         <v>4744</v>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>No</t>
@@ -35542,7 +36270,11 @@
         <v>4745</v>
       </c>
       <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>No</t>
@@ -35641,7 +36373,11 @@
         <v>4767</v>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>No</t>
@@ -35740,7 +36476,11 @@
         <v>4772</v>
       </c>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>No</t>
@@ -35839,7 +36579,11 @@
         <v>4796</v>
       </c>
       <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>No</t>
@@ -35938,7 +36682,11 @@
         <v>4835</v>
       </c>
       <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>No</t>
@@ -36037,7 +36785,11 @@
         <v>4874</v>
       </c>
       <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>No</t>
@@ -36136,7 +36888,11 @@
         <v>4878</v>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>No</t>
@@ -36235,7 +36991,11 @@
         <v>4879</v>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>No</t>
@@ -36334,7 +37094,11 @@
         <v>4905</v>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>No</t>
@@ -36433,7 +37197,11 @@
         <v>4943</v>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>No</t>
@@ -36532,7 +37300,11 @@
         <v>4988</v>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>No</t>
@@ -36631,7 +37403,11 @@
         <v>5000</v>
       </c>
       <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>No</t>
@@ -36730,7 +37506,11 @@
         <v>5002</v>
       </c>
       <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>No</t>
@@ -36829,7 +37609,11 @@
         <v>5003</v>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>No</t>
@@ -36928,7 +37712,11 @@
         <v>5006</v>
       </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>No</t>
@@ -37027,7 +37815,11 @@
         <v>5050</v>
       </c>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>11/05</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -37334,7 +38126,11 @@
         <v>5079</v>
       </c>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>12/05</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>No</t>
@@ -37433,7 +38229,11 @@
         <v>5113</v>
       </c>
       <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>12/05</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>No</t>
@@ -37532,7 +38332,11 @@
         <v>5220</v>
       </c>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>12/05</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>No</t>
@@ -37631,7 +38435,11 @@
         <v>5327</v>
       </c>
       <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>12/05</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>No</t>
@@ -37730,7 +38538,11 @@
         <v>5339</v>
       </c>
       <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>No</t>
@@ -37829,7 +38641,11 @@
         <v>5397</v>
       </c>
       <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>No</t>
@@ -37928,7 +38744,11 @@
         <v>5398</v>
       </c>
       <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D206" t="inlineStr">
         <is>
           <t>No</t>
@@ -38027,7 +38847,11 @@
         <v>5399</v>
       </c>
       <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>No</t>
@@ -38126,7 +38950,11 @@
         <v>5436</v>
       </c>
       <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -38499,7 +39327,11 @@
         <v>5449</v>
       </c>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>No</t>
@@ -38598,7 +39430,11 @@
         <v>5454</v>
       </c>
       <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D210" t="inlineStr">
         <is>
           <t>No</t>
@@ -38697,7 +39533,11 @@
         <v>5455</v>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
           <t>No</t>
@@ -38796,7 +39636,11 @@
         <v>5543</v>
       </c>
       <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>No</t>
@@ -38895,7 +39739,11 @@
         <v>5547</v>
       </c>
       <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>No</t>
@@ -38994,7 +39842,11 @@
         <v>5550</v>
       </c>
       <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>No</t>
@@ -39093,7 +39945,11 @@
         <v>5551</v>
       </c>
       <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>No</t>
@@ -39192,7 +40048,11 @@
         <v>5591</v>
       </c>
       <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -39557,7 +40417,11 @@
         <v>5601</v>
       </c>
       <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>No</t>
@@ -39656,7 +40520,11 @@
         <v>5610</v>
       </c>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -40029,7 +40897,11 @@
         <v>5668</v>
       </c>
       <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D219" t="inlineStr">
         <is>
           <t>No</t>
@@ -40128,7 +41000,11 @@
         <v>5696</v>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr">
         <is>
           <t>No</t>
@@ -40227,7 +41103,11 @@
         <v>5702</v>
       </c>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>No</t>
@@ -40326,7 +41206,11 @@
         <v>5721</v>
       </c>
       <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D222" t="inlineStr">
         <is>
           <t>No</t>
@@ -40425,7 +41309,11 @@
         <v>5799</v>
       </c>
       <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
       <c r="D223" t="inlineStr">
         <is>
           <t>No</t>
@@ -40524,7 +41412,11 @@
         <v>5845</v>
       </c>
       <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -40903,7 +41795,11 @@
         <v>5857</v>
       </c>
       <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>No</t>
@@ -41002,7 +41898,11 @@
         <v>5894</v>
       </c>
       <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -41367,7 +42267,11 @@
         <v>5902</v>
       </c>
       <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>No</t>
@@ -41466,7 +42370,11 @@
         <v>5921</v>
       </c>
       <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -41843,7 +42751,11 @@
         <v>5938</v>
       </c>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>No</t>
@@ -41942,7 +42854,11 @@
         <v>5970</v>
       </c>
       <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>18/05</t>
+        </is>
+      </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>No</t>
@@ -42041,7 +42957,11 @@
         <v>5973</v>
       </c>
       <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>18/05</t>
+        </is>
+      </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>No</t>
@@ -42140,7 +43060,11 @@
         <v>6028</v>
       </c>
       <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>18/05</t>
+        </is>
+      </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>No</t>
@@ -42239,7 +43163,11 @@
         <v>6030</v>
       </c>
       <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>18/05</t>
+        </is>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>No</t>
@@ -42338,7 +43266,11 @@
         <v>6117</v>
       </c>
       <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>18/05</t>
+        </is>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -42697,7 +43629,11 @@
         <v>6180</v>
       </c>
       <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>19/05</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>No</t>
@@ -42796,7 +43732,11 @@
         <v>6199</v>
       </c>
       <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>19/05</t>
+        </is>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>No</t>
@@ -42895,7 +43835,11 @@
         <v>6200</v>
       </c>
       <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>19/05</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>No</t>
@@ -42994,7 +43938,11 @@
         <v>6203</v>
       </c>
       <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>19/05</t>
+        </is>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>No</t>
@@ -43093,7 +44041,11 @@
         <v>6308</v>
       </c>
       <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>19/05</t>
+        </is>
+      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>No</t>
@@ -43192,7 +44144,11 @@
         <v>6338</v>
       </c>
       <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>No</t>
@@ -43291,7 +44247,11 @@
         <v>6389</v>
       </c>
       <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>No</t>
@@ -43390,7 +44350,11 @@
         <v>6409</v>
       </c>
       <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>No</t>
@@ -43489,7 +44453,11 @@
         <v>6473</v>
       </c>
       <c r="B243" t="inlineStr"/>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -43858,7 +44826,11 @@
         <v>6482</v>
       </c>
       <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>No</t>
@@ -43957,7 +44929,11 @@
         <v>6598</v>
       </c>
       <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>No</t>
@@ -44056,7 +45032,11 @@
         <v>6599</v>
       </c>
       <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>No</t>
@@ -44155,7 +45135,11 @@
         <v>6600</v>
       </c>
       <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>No</t>
@@ -44254,7 +45238,11 @@
         <v>6601</v>
       </c>
       <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>No</t>
@@ -44353,7 +45341,11 @@
         <v>6603</v>
       </c>
       <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>No</t>
@@ -44452,7 +45444,11 @@
         <v>6635</v>
       </c>
       <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>No</t>
@@ -44551,7 +45547,11 @@
         <v>6655</v>
       </c>
       <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>No</t>
@@ -44650,7 +45650,11 @@
         <v>6686</v>
       </c>
       <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>27/05</t>
+        </is>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>Sí</t>

--- a/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM252"/>
+  <dimension ref="A1:CM254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45938,6 +45938,716 @@
       </c>
       <c r="CM252" t="inlineStr"/>
     </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>6853</v>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>01/06</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>108</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>3104790177</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>aliciamoraro@gmail.com</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>46</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Casado/a o  En unión libre</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>Sí, otro tipo de formación (diplomados, especializaciones, formación complementaria)</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr"/>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>7°, 8°, 9°, 10°</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr"/>
+      <c r="AA253" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="AC253" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>Totalmente de Acuerdo</t>
+        </is>
+      </c>
+      <c r="AI253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AJ253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AL253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AM253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t>En Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>En Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AP253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AQ253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="AR253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AS253" t="inlineStr">
+        <is>
+          <t>En Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AT253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="AU253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AV253" t="inlineStr">
+        <is>
+          <t>Totalmente de Acuerdo</t>
+        </is>
+      </c>
+      <c r="AW253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AX253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AY253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="AZ253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="BA253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="BB253" t="inlineStr">
+        <is>
+          <t>De Acuerdo</t>
+        </is>
+      </c>
+      <c r="BC253" t="inlineStr"/>
+      <c r="BD253" t="inlineStr"/>
+      <c r="BE253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>8</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO253" t="inlineStr"/>
+      <c r="BP253" t="inlineStr">
+        <is>
+          <t>Una secuencia lógica de pasos para realizar una tarea.</t>
+        </is>
+      </c>
+      <c r="BQ253" t="inlineStr">
+        <is>
+          <t>Para probar una solución a un problema</t>
+        </is>
+      </c>
+      <c r="BR253" t="inlineStr">
+        <is>
+          <t>Un conjunto de instrucciones que se ejecuta mientras se cumpla una condición</t>
+        </is>
+      </c>
+      <c r="BS253" t="inlineStr">
+        <is>
+          <t>Cree que todo se ejecuta independiente de la condición</t>
+        </is>
+      </c>
+      <c r="BT253" t="inlineStr">
+        <is>
+          <t>No tiene claro el concepto de bucle y por eso no logra identificar que A y C hacen lo mismo</t>
+        </is>
+      </c>
+      <c r="BU253" t="inlineStr"/>
+      <c r="BV253" t="inlineStr">
+        <is>
+          <t>Motivar que las niñas participen y sean escuchadas, por ejemplo, alternándolas con los niños., Utilizar lenguaje inclusivo y no realizar estereotipos de género, por ejemplo, decir “todas las personas” en vez de “todos los niños” o evitar decir que "las niñas son delicadas".</t>
+        </is>
+      </c>
+      <c r="BW253" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="BX253" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="BY253" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="BZ253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="CA253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="CB253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="CC253" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CD253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="CE253" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="CF253" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="CG253" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="CH253" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="CI253" t="inlineStr">
+        <is>
+          <t>De acuerdo</t>
+        </is>
+      </c>
+      <c r="CJ253" t="inlineStr">
+        <is>
+          <t>En desacuerdo</t>
+        </is>
+      </c>
+      <c r="CK253" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CL253" t="inlineStr">
+        <is>
+          <t>Neutro</t>
+        </is>
+      </c>
+      <c r="CM253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>6857</v>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>01/06</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>8507159</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>fwanchos@hotmail.com</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>42</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Casado/a o  En unión libre</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr"/>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>9°, 11°</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr"/>
+      <c r="Y254" t="inlineStr"/>
+      <c r="Z254" t="inlineStr"/>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t>Totalmente en Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AR254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AS254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AU254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="AV254" t="inlineStr">
+        <is>
+          <t>Totalmente Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AW254" t="inlineStr">
+        <is>
+          <t>Totalmente Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AX254" t="inlineStr">
+        <is>
+          <t>Totalmente Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AY254" t="inlineStr">
+        <is>
+          <t>Totalmente Desacuerdo</t>
+        </is>
+      </c>
+      <c r="AZ254" t="inlineStr">
+        <is>
+          <t>Totalmente Desacuerdo</t>
+        </is>
+      </c>
+      <c r="BA254" t="inlineStr">
+        <is>
+          <t>Totalmente Desacuerdo</t>
+        </is>
+      </c>
+      <c r="BB254" t="inlineStr">
+        <is>
+          <t>Totalmente Desacuerdo</t>
+        </is>
+      </c>
+      <c r="BC254" t="inlineStr"/>
+      <c r="BD254" t="inlineStr"/>
+      <c r="BE254" t="inlineStr"/>
+      <c r="BF254" t="inlineStr"/>
+      <c r="BG254" t="inlineStr"/>
+      <c r="BH254" t="inlineStr"/>
+      <c r="BI254" t="inlineStr"/>
+      <c r="BJ254" t="inlineStr"/>
+      <c r="BK254" t="inlineStr"/>
+      <c r="BL254" t="inlineStr"/>
+      <c r="BM254" t="inlineStr"/>
+      <c r="BN254" t="inlineStr"/>
+      <c r="BO254" t="inlineStr"/>
+      <c r="BP254" t="inlineStr">
+        <is>
+          <t>No sé/ No lo conozco</t>
+        </is>
+      </c>
+      <c r="BQ254" t="inlineStr">
+        <is>
+          <t>No sé/ No lo conozco</t>
+        </is>
+      </c>
+      <c r="BR254" t="inlineStr">
+        <is>
+          <t>No sé/ No lo conozco</t>
+        </is>
+      </c>
+      <c r="BS254" t="inlineStr">
+        <is>
+          <t>No sé/ No lo conozco</t>
+        </is>
+      </c>
+      <c r="BT254" t="inlineStr">
+        <is>
+          <t>No sé/ No lo conozco</t>
+        </is>
+      </c>
+      <c r="BU254" t="inlineStr"/>
+      <c r="BV254" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="BW254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="BX254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="BY254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="BZ254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CA254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CB254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CC254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CD254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CE254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CF254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CG254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CH254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CI254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CJ254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CK254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CL254" t="inlineStr">
+        <is>
+          <t>Totalmente en desacuerdo</t>
+        </is>
+      </c>
+      <c r="CM254" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_docentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM267"/>
+  <dimension ref="A1:CM268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51007,6 +51007,109 @@
       <c r="CL267" t="inlineStr"/>
       <c r="CM267" t="inlineStr"/>
     </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>6991</v>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>15/06</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr"/>
+      <c r="AE268" t="inlineStr"/>
+      <c r="AF268" t="inlineStr"/>
+      <c r="AG268" t="inlineStr"/>
+      <c r="AH268" t="inlineStr"/>
+      <c r="AI268" t="inlineStr"/>
+      <c r="AJ268" t="inlineStr"/>
+      <c r="AK268" t="inlineStr"/>
+      <c r="AL268" t="inlineStr"/>
+      <c r="AM268" t="inlineStr"/>
+      <c r="AN268" t="inlineStr"/>
+      <c r="AO268" t="inlineStr"/>
+      <c r="AP268" t="inlineStr"/>
+      <c r="AQ268" t="inlineStr"/>
+      <c r="AR268" t="inlineStr"/>
+      <c r="AS268" t="inlineStr"/>
+      <c r="AT268" t="inlineStr"/>
+      <c r="AU268" t="inlineStr"/>
+      <c r="AV268" t="inlineStr"/>
+      <c r="AW268" t="inlineStr"/>
+      <c r="AX268" t="inlineStr"/>
+      <c r="AY268" t="inlineStr"/>
+      <c r="AZ268" t="inlineStr"/>
+      <c r="BA268" t="inlineStr"/>
+      <c r="BB268" t="inlineStr"/>
+      <c r="BC268" t="inlineStr"/>
+      <c r="BD268" t="inlineStr"/>
+      <c r="BE268" t="inlineStr"/>
+      <c r="BF268" t="inlineStr"/>
+      <c r="BG268" t="inlineStr"/>
+      <c r="BH268" t="inlineStr"/>
+      <c r="BI268" t="inlineStr"/>
+      <c r="BJ268" t="inlineStr"/>
+      <c r="BK268" t="inlineStr"/>
+      <c r="BL268" t="inlineStr"/>
+      <c r="BM268" t="inlineStr"/>
+      <c r="BN268" t="inlineStr"/>
+      <c r="BO268" t="inlineStr"/>
+      <c r="BP268" t="inlineStr"/>
+      <c r="BQ268" t="inlineStr"/>
+      <c r="BR268" t="inlineStr"/>
+      <c r="BS268" t="inlineStr"/>
+      <c r="BT268" t="inlineStr"/>
+      <c r="BU268" t="inlineStr"/>
+      <c r="BV268" t="inlineStr"/>
+      <c r="BW268" t="inlineStr"/>
+      <c r="BX268" t="inlineStr"/>
+      <c r="BY268" t="inlineStr"/>
+      <c r="BZ268" t="inlineStr"/>
+      <c r="CA268" t="inlineStr"/>
+      <c r="CB268" t="inlineStr"/>
+      <c r="CC268" t="inlineStr"/>
+      <c r="CD268" t="inlineStr"/>
+      <c r="CE268" t="inlineStr"/>
+      <c r="CF268" t="inlineStr"/>
+      <c r="CG268" t="inlineStr"/>
+      <c r="CH268" t="inlineStr"/>
+      <c r="CI268" t="inlineStr"/>
+      <c r="CJ268" t="inlineStr"/>
+      <c r="CK268" t="inlineStr"/>
+      <c r="CL268" t="inlineStr"/>
+      <c r="CM268" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
